--- a/data/pca/factorExposure/factorExposure_2009-12-16.xlsx
+++ b/data/pca/factorExposure/factorExposure_2009-12-16.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,12 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +695,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:F104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,24 +711,36 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>0.003579207843663582</v>
+        <v>0.01700380462693519</v>
       </c>
       <c r="C2">
-        <v>0.008703724162285242</v>
+        <v>-0.001081540853242757</v>
       </c>
       <c r="D2">
-        <v>-0.00259013010490612</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.006840274790488179</v>
+      </c>
+      <c r="E2">
+        <v>0.0001670133489157731</v>
+      </c>
+      <c r="F2">
+        <v>-0.01117371605898535</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -733,24 +751,36 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>0.03067068481158281</v>
+        <v>0.09365281912888572</v>
       </c>
       <c r="C4">
-        <v>0.1195824845454896</v>
+        <v>-0.01518790802580252</v>
       </c>
       <c r="D4">
-        <v>-0.02565440467814299</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.0842097975563421</v>
+      </c>
+      <c r="E4">
+        <v>-0.02829134582568011</v>
+      </c>
+      <c r="F4">
+        <v>0.03052843930952443</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +791,236 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>0.03919783678729709</v>
+        <v>0.1569538375552793</v>
       </c>
       <c r="C6">
-        <v>0.1133955601883217</v>
+        <v>-0.0251188573886073</v>
       </c>
       <c r="D6">
-        <v>0.03573340454487979</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.02121876279117328</v>
+      </c>
+      <c r="E6">
+        <v>-0.009473598273739984</v>
+      </c>
+      <c r="F6">
+        <v>0.04590010259876653</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>0.01080972893768976</v>
+        <v>0.06243843948355679</v>
       </c>
       <c r="C7">
-        <v>0.08261868486484035</v>
+        <v>0.001726894350368673</v>
       </c>
       <c r="D7">
-        <v>-0.00552555372921566</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.05377074126848386</v>
+      </c>
+      <c r="E7">
+        <v>-0.01027964211330813</v>
+      </c>
+      <c r="F7">
+        <v>0.04769980567805465</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B8">
-        <v>-0.000564425704082803</v>
+        <v>0.05702779078504878</v>
       </c>
       <c r="C8">
-        <v>0.07151692611443063</v>
+        <v>0.01377741758894752</v>
       </c>
       <c r="D8">
-        <v>0.02904841633831565</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.03465415987692884</v>
+      </c>
+      <c r="E8">
+        <v>-0.01779275683309091</v>
+      </c>
+      <c r="F8">
+        <v>-0.02773861201035551</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B9">
-        <v>0.02550732635145002</v>
+        <v>0.07114005739786412</v>
       </c>
       <c r="C9">
-        <v>0.09878227041531937</v>
+        <v>-0.01081886226932341</v>
       </c>
       <c r="D9">
-        <v>-0.03083355112845361</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.08629593571898578</v>
+      </c>
+      <c r="E9">
+        <v>-0.02299811427631957</v>
+      </c>
+      <c r="F9">
+        <v>0.04727478287014969</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B10">
-        <v>0.01251717891661924</v>
+        <v>0.09583980197898687</v>
       </c>
       <c r="C10">
-        <v>0.02487368899757486</v>
+        <v>-0.02089508346865848</v>
       </c>
       <c r="D10">
-        <v>0.1389798761697381</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.1719015324312712</v>
+      </c>
+      <c r="E10">
+        <v>0.03633426949916555</v>
+      </c>
+      <c r="F10">
+        <v>-0.05378647729063924</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B11">
-        <v>0.03031557732758885</v>
+        <v>0.08782663047287352</v>
       </c>
       <c r="C11">
-        <v>0.1037197794121185</v>
+        <v>-0.01036758469376473</v>
       </c>
       <c r="D11">
-        <v>-0.0381215441714397</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.1155995761125123</v>
+      </c>
+      <c r="E11">
+        <v>-0.04563982581861724</v>
+      </c>
+      <c r="F11">
+        <v>0.02151107758257052</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B12">
-        <v>0.02783486859834797</v>
+        <v>0.09212134725547481</v>
       </c>
       <c r="C12">
-        <v>0.114513097100847</v>
+        <v>-0.00748688631534536</v>
       </c>
       <c r="D12">
-        <v>-0.03657970322560803</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.1313680346730169</v>
+      </c>
+      <c r="E12">
+        <v>-0.0474045510413658</v>
+      </c>
+      <c r="F12">
+        <v>0.02575435006996744</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B13">
-        <v>0.009891693126544076</v>
+        <v>0.04188484801729018</v>
       </c>
       <c r="C13">
-        <v>0.04345968072071951</v>
+        <v>-0.002864702617123226</v>
       </c>
       <c r="D13">
-        <v>-0.0224361396758305</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.0528781078088527</v>
+      </c>
+      <c r="E13">
+        <v>0.007860563276977012</v>
+      </c>
+      <c r="F13">
+        <v>0.00275361955648686</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B14">
-        <v>0.01594567693699713</v>
+        <v>0.02285603545464552</v>
       </c>
       <c r="C14">
-        <v>0.02199693204555772</v>
+        <v>-0.01374473318577062</v>
       </c>
       <c r="D14">
-        <v>0.001520509255411927</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.03301453387112015</v>
+      </c>
+      <c r="E14">
+        <v>-0.01717158639628885</v>
+      </c>
+      <c r="F14">
+        <v>0.01416144367659207</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B15">
-        <v>0.01059439097089497</v>
+        <v>0.03292087402024505</v>
       </c>
       <c r="C15">
-        <v>0.02713142239338482</v>
+        <v>-0.004762178804331937</v>
       </c>
       <c r="D15">
-        <v>-0.01355650908915683</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>-0.04517866090069711</v>
+      </c>
+      <c r="E15">
+        <v>-0.006275062211011879</v>
+      </c>
+      <c r="F15">
+        <v>0.02275356645893619</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B16">
-        <v>0.01979106982588497</v>
+        <v>0.07407812709778765</v>
       </c>
       <c r="C16">
-        <v>0.1089237994264412</v>
+        <v>-0.001493768955340935</v>
       </c>
       <c r="D16">
-        <v>-0.01631100660348445</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.1251591098084872</v>
+      </c>
+      <c r="E16">
+        <v>-0.06152091101361599</v>
+      </c>
+      <c r="F16">
+        <v>0.02432555684881121</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,24 +1031,36 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>0.03158985809823609</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>0.003457133094961674</v>
       </c>
       <c r="D18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>-0.01956230503350736</v>
+      </c>
+      <c r="E18">
+        <v>0.007268787631026933</v>
+      </c>
+      <c r="F18">
+        <v>-0.003412759790664458</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -957,108 +1071,156 @@
       <c r="D19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B20">
-        <v>0.01235231352029716</v>
+        <v>0.06101665712260775</v>
       </c>
       <c r="C20">
-        <v>0.064501993154994</v>
+        <v>-8.332315056553495e-05</v>
       </c>
       <c r="D20">
-        <v>-0.005098220612690832</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.07716582969717684</v>
+      </c>
+      <c r="E20">
+        <v>-0.05547512065001427</v>
+      </c>
+      <c r="F20">
+        <v>0.02322303684204464</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B21">
-        <v>0.01359430725334541</v>
+        <v>0.0403121283212831</v>
       </c>
       <c r="C21">
-        <v>0.02540716380361879</v>
+        <v>-0.00627390560232502</v>
       </c>
       <c r="D21">
-        <v>0.005819550258927862</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.03746553557287749</v>
+      </c>
+      <c r="E21">
+        <v>0.005625272512081841</v>
+      </c>
+      <c r="F21">
+        <v>-0.02391087318812881</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B22">
-        <v>0.005469904297231484</v>
+        <v>0.04365763963837477</v>
       </c>
       <c r="C22">
-        <v>0.02928973479218606</v>
+        <v>-0.0007361510632448592</v>
       </c>
       <c r="D22">
-        <v>0.04304079770985748</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.003374967416192559</v>
+      </c>
+      <c r="E22">
+        <v>-0.02945630453427613</v>
+      </c>
+      <c r="F22">
+        <v>-0.03524169990479063</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B23">
-        <v>0.005457174706201795</v>
+        <v>0.04364321232361609</v>
       </c>
       <c r="C23">
-        <v>0.02922382565478958</v>
+        <v>-0.0007318542308617627</v>
       </c>
       <c r="D23">
-        <v>0.04309773053408772</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.003379812367375223</v>
+      </c>
+      <c r="E23">
+        <v>-0.02965788520036305</v>
+      </c>
+      <c r="F23">
+        <v>-0.03520468893193646</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B24">
-        <v>0.01940465583880685</v>
+        <v>0.08016563906831027</v>
       </c>
       <c r="C24">
-        <v>0.1101693358364502</v>
+        <v>-0.001963376891497456</v>
       </c>
       <c r="D24">
-        <v>-0.0328490285688705</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.1201123763214739</v>
+      </c>
+      <c r="E24">
+        <v>-0.04882090942651614</v>
+      </c>
+      <c r="F24">
+        <v>0.02598565456457445</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B25">
-        <v>0.025598111548916</v>
+        <v>0.08524985050568235</v>
       </c>
       <c r="C25">
-        <v>0.1123729304351467</v>
+        <v>-0.004258270903466208</v>
       </c>
       <c r="D25">
-        <v>-0.02365223914814648</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.1086589550830799</v>
+      </c>
+      <c r="E25">
+        <v>-0.03221471810131813</v>
+      </c>
+      <c r="F25">
+        <v>0.02677583794796332</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B26">
-        <v>0.02438533835504892</v>
+        <v>0.0578511853447648</v>
       </c>
       <c r="C26">
-        <v>0.04941414079210817</v>
+        <v>-0.01430253625302139</v>
       </c>
       <c r="D26">
-        <v>0.01798639648014524</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.03965616111704994</v>
+      </c>
+      <c r="E26">
+        <v>-0.02755788138626585</v>
+      </c>
+      <c r="F26">
+        <v>-0.009382363082039172</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,206 +1231,296 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B28">
-        <v>0.006508321548549744</v>
+        <v>0.140071630238345</v>
       </c>
       <c r="C28">
-        <v>0.03225363332824056</v>
+        <v>-0.02007251175618935</v>
       </c>
       <c r="D28">
-        <v>0.2052353932244998</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.2615246810014413</v>
+      </c>
+      <c r="E28">
+        <v>0.06707423299218727</v>
+      </c>
+      <c r="F28">
+        <v>0.009926902574766064</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B29">
-        <v>0.01299435199715178</v>
+        <v>0.02768619296112534</v>
       </c>
       <c r="C29">
-        <v>0.02810552107611604</v>
+        <v>-0.008112641218190048</v>
       </c>
       <c r="D29">
-        <v>0.008316868478862791</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.03203875081733691</v>
+      </c>
+      <c r="E29">
+        <v>-0.0112711145305242</v>
+      </c>
+      <c r="F29">
+        <v>-0.01043567901869322</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B30">
-        <v>0.01560373977755983</v>
+        <v>0.06126697943165874</v>
       </c>
       <c r="C30">
-        <v>0.1288473643949835</v>
+        <v>-0.003140206569111802</v>
       </c>
       <c r="D30">
-        <v>-0.02774348411968954</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.08906444194607892</v>
+      </c>
+      <c r="E30">
+        <v>-0.01931189023844035</v>
+      </c>
+      <c r="F30">
+        <v>0.08368462255591028</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B31">
-        <v>0.0216813099848434</v>
+        <v>0.04996892678581719</v>
       </c>
       <c r="C31">
-        <v>0.03536866649545206</v>
+        <v>-0.01511965027281203</v>
       </c>
       <c r="D31">
-        <v>-0.002355826059781954</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.02518956736551085</v>
+      </c>
+      <c r="E31">
+        <v>-0.02755937279055541</v>
+      </c>
+      <c r="F31">
+        <v>-0.0024614203702743</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B32">
-        <v>0.008289298351936833</v>
+        <v>0.05017648414187801</v>
       </c>
       <c r="C32">
-        <v>0.06014000115753298</v>
+        <v>0.001685244865129154</v>
       </c>
       <c r="D32">
-        <v>0.02755988442497779</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.0358248508585355</v>
+      </c>
+      <c r="E32">
+        <v>-0.03061713788084334</v>
+      </c>
+      <c r="F32">
+        <v>0.002940279451543305</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B33">
-        <v>0.0221948541861135</v>
+        <v>0.08945974134041074</v>
       </c>
       <c r="C33">
-        <v>0.1121090872541387</v>
+        <v>-0.007561810073688697</v>
       </c>
       <c r="D33">
-        <v>-0.03542393593203062</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.09912962162120305</v>
+      </c>
+      <c r="E33">
+        <v>-0.04395480400000257</v>
+      </c>
+      <c r="F33">
+        <v>0.03564619108297993</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B34">
-        <v>0.02744292234722198</v>
+        <v>0.06843363175809739</v>
       </c>
       <c r="C34">
-        <v>0.09454813893447706</v>
+        <v>-0.01058301746355989</v>
       </c>
       <c r="D34">
-        <v>-0.01451036374421756</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.1067102684823179</v>
+      </c>
+      <c r="E34">
+        <v>-0.03449728353585627</v>
+      </c>
+      <c r="F34">
+        <v>0.03380472688638718</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B35">
-        <v>0.003887133204598395</v>
+        <v>0.02419779936617384</v>
       </c>
       <c r="C35">
-        <v>0.01480489172032697</v>
+        <v>-0.002401736968251929</v>
       </c>
       <c r="D35">
-        <v>-0.002436412894565133</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>-0.01158257559747628</v>
+      </c>
+      <c r="E35">
+        <v>-0.01163240024365466</v>
+      </c>
+      <c r="F35">
+        <v>0.000894507809918233</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B36">
-        <v>0.01110206611132533</v>
+        <v>0.02779472487150428</v>
       </c>
       <c r="C36">
-        <v>0.0275451932878366</v>
+        <v>-0.006994380990696904</v>
       </c>
       <c r="D36">
-        <v>-0.006713648694086563</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.0388900458768686</v>
+      </c>
+      <c r="E36">
+        <v>-0.01573481755005098</v>
+      </c>
+      <c r="F36">
+        <v>0.01480923807607239</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>0.000371403604547336</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>4.391836060967162e-05</v>
       </c>
       <c r="D37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
+        <v>0.0005302297213892729</v>
+      </c>
+      <c r="E37">
+        <v>0.0004794783610414293</v>
+      </c>
+      <c r="F37">
+        <v>0.0006990845346833355</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B38">
-        <v>0.0006478979621823125</v>
+        <v>0.001563692902621656</v>
       </c>
       <c r="C38">
-        <v>0.004442084909253671</v>
+        <v>-0.0002611604951340677</v>
       </c>
       <c r="D38">
-        <v>0.003301797715599732</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>0.0001296980436635087</v>
+      </c>
+      <c r="E38">
+        <v>-0.0005681688408765244</v>
+      </c>
+      <c r="F38">
+        <v>-0.0008433582858154577</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B39">
-        <v>0.04278379382478642</v>
+        <v>0.1055673265146086</v>
       </c>
       <c r="C39">
-        <v>0.164215314737</v>
+        <v>-0.01553958849873843</v>
       </c>
       <c r="D39">
-        <v>-0.06002509662155292</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.1539425901929327</v>
+      </c>
+      <c r="E39">
+        <v>-0.05913578703719507</v>
+      </c>
+      <c r="F39">
+        <v>0.02860525345480768</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B40">
-        <v>0.01115313685779608</v>
+        <v>0.04101417914001066</v>
       </c>
       <c r="C40">
-        <v>0.01313223643791332</v>
+        <v>-0.006672203109360938</v>
       </c>
       <c r="D40">
-        <v>0.007638528185429358</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.03259635129387054</v>
+      </c>
+      <c r="E40">
+        <v>-0.003546485119917544</v>
+      </c>
+      <c r="F40">
+        <v>-0.01546559891814828</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B41">
-        <v>0.01152161219334472</v>
+        <v>0.02784417202366118</v>
       </c>
       <c r="C41">
-        <v>0.01923163257004626</v>
+        <v>-0.006707546480622347</v>
       </c>
       <c r="D41">
-        <v>0.01506166727125478</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.01045215917785808</v>
+      </c>
+      <c r="E41">
+        <v>-0.01244062468084755</v>
+      </c>
+      <c r="F41">
+        <v>-0.006748935857200027</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1531,56 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B43">
-        <v>0.0134046786617028</v>
+        <v>0.0407978044078377</v>
       </c>
       <c r="C43">
-        <v>0.02744498045830461</v>
+        <v>-0.006732070290976121</v>
       </c>
       <c r="D43">
-        <v>0.009538311641460117</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.01990479154645064</v>
+      </c>
+      <c r="E43">
+        <v>-0.02472228829644927</v>
+      </c>
+      <c r="F43">
+        <v>-0.01290026435653122</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B44">
-        <v>0.03231429949502428</v>
+        <v>0.08051183808301836</v>
       </c>
       <c r="C44">
-        <v>0.1279383596397178</v>
+        <v>-0.01982299705708399</v>
       </c>
       <c r="D44">
-        <v>-0.00802336939997955</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.09822284791684595</v>
+      </c>
+      <c r="E44">
+        <v>-0.06600212119586799</v>
+      </c>
+      <c r="F44">
+        <v>0.1569411833313922</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,164 +1591,236 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B46">
-        <v>0.005458409948211616</v>
+        <v>0.0235276346054622</v>
       </c>
       <c r="C46">
-        <v>0.00566342699373927</v>
+        <v>-0.003483921171199731</v>
       </c>
       <c r="D46">
-        <v>0.01743396082071874</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.01298226055383332</v>
+      </c>
+      <c r="E46">
+        <v>-0.02230421891911183</v>
+      </c>
+      <c r="F46">
+        <v>-0.004940709909244163</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B47">
-        <v>0.01073685497549721</v>
+        <v>0.0513222345504138</v>
       </c>
       <c r="C47">
-        <v>0.03158817525953698</v>
+        <v>-0.003293877340687758</v>
       </c>
       <c r="D47">
-        <v>0.02629225868113711</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.01425308093205248</v>
+      </c>
+      <c r="E47">
+        <v>-0.02357359791901994</v>
+      </c>
+      <c r="F47">
+        <v>-0.03381752436826427</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B48">
-        <v>0.01251238612393175</v>
+        <v>0.04981153399488988</v>
       </c>
       <c r="C48">
-        <v>0.04988913709008187</v>
+        <v>-0.002191629592121841</v>
       </c>
       <c r="D48">
-        <v>-0.01174618168106136</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.04987639888485765</v>
+      </c>
+      <c r="E48">
+        <v>0.006533593195194871</v>
+      </c>
+      <c r="F48">
+        <v>0.00963690519131076</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B49">
-        <v>0.0398261306769273</v>
+        <v>0.1997339804027282</v>
       </c>
       <c r="C49">
-        <v>0.2184160640011157</v>
+        <v>-0.0184494698950762</v>
       </c>
       <c r="D49">
-        <v>0.06431994343766483</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>0.007277876002958733</v>
+      </c>
+      <c r="E49">
+        <v>-0.0315282997037461</v>
+      </c>
+      <c r="F49">
+        <v>0.03919140145638395</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B50">
-        <v>0.01849689282185628</v>
+        <v>0.05074941268276703</v>
       </c>
       <c r="C50">
-        <v>0.03963802122158094</v>
+        <v>-0.01113111602565031</v>
       </c>
       <c r="D50">
-        <v>0.005551397479150372</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.02361194516808863</v>
+      </c>
+      <c r="E50">
+        <v>-0.02933927419425377</v>
+      </c>
+      <c r="F50">
+        <v>0.008889283631359985</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B51">
-        <v>0.0003698612582810747</v>
+        <v>0.0006650960081609305</v>
       </c>
       <c r="C51">
-        <v>0.001479173943799673</v>
+        <v>-0.0001851095207994418</v>
       </c>
       <c r="D51">
-        <v>0.001526074446808294</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>0.000209363295946229</v>
+      </c>
+      <c r="E51">
+        <v>-0.0001402344134899524</v>
+      </c>
+      <c r="F51">
+        <v>0.002822602741334884</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B52">
-        <v>0.03185969817032433</v>
+        <v>0.1463350687606732</v>
       </c>
       <c r="C52">
-        <v>0.1503549812844255</v>
+        <v>-0.01536501828259521</v>
       </c>
       <c r="D52">
-        <v>-0.02122966675941912</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
+        <v>-0.04461269340944334</v>
+      </c>
+      <c r="E52">
+        <v>-0.02002174538614724</v>
+      </c>
+      <c r="F52">
+        <v>0.04046393197243225</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B53">
-        <v>0.03274208168797774</v>
+        <v>0.17244731437098</v>
       </c>
       <c r="C53">
-        <v>0.1714193777617513</v>
+        <v>-0.01862039101153413</v>
       </c>
       <c r="D53">
-        <v>0.007550110355699934</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.005865034616878324</v>
+      </c>
+      <c r="E53">
+        <v>-0.03126765041781869</v>
+      </c>
+      <c r="F53">
+        <v>0.07207796856305697</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B54">
-        <v>0.016287673037793</v>
+        <v>0.02204759497863684</v>
       </c>
       <c r="C54">
-        <v>0.04005802686993128</v>
+        <v>-0.01231401042739243</v>
       </c>
       <c r="D54">
-        <v>0.01120179820593602</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.03441451767300512</v>
+      </c>
+      <c r="E54">
+        <v>-0.01882266185056753</v>
+      </c>
+      <c r="F54">
+        <v>-0.003624510860461134</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B55">
-        <v>0.02554441269364516</v>
+        <v>0.1139783239481924</v>
       </c>
       <c r="C55">
-        <v>0.08681075092357426</v>
+        <v>-0.0162463075628806</v>
       </c>
       <c r="D55">
-        <v>-0.0007460175789057059</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.009594053930732023</v>
+      </c>
+      <c r="E55">
+        <v>-0.02777565561416857</v>
+      </c>
+      <c r="F55">
+        <v>0.04636412633763148</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B56">
-        <v>0.03417576409139561</v>
+        <v>0.1771701671841412</v>
       </c>
       <c r="C56">
-        <v>0.1603018648226957</v>
+        <v>-0.01609659111826943</v>
       </c>
       <c r="D56">
-        <v>0.02382284076620174</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>-0.0007353154258213384</v>
+      </c>
+      <c r="E56">
+        <v>-0.03538806567919391</v>
+      </c>
+      <c r="F56">
+        <v>0.0503299716264485</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,626 +1831,896 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B58">
-        <v>0.01295940830095502</v>
+        <v>0.04643212892619875</v>
       </c>
       <c r="C58">
-        <v>0.05024806273134817</v>
+        <v>-0.000494311485604201</v>
       </c>
       <c r="D58">
-        <v>-0.009396084437101567</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.06726393375733866</v>
+      </c>
+      <c r="E58">
+        <v>-0.02746359896538233</v>
+      </c>
+      <c r="F58">
+        <v>-0.03616462321344198</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B59">
-        <v>0.01545811003386303</v>
+        <v>0.1676260866309013</v>
       </c>
       <c r="C59">
-        <v>0.08853862705139449</v>
+        <v>-0.02062154563349046</v>
       </c>
       <c r="D59">
-        <v>0.2227772010070748</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.2171299966142234</v>
+      </c>
+      <c r="E59">
+        <v>0.04510871838541731</v>
+      </c>
+      <c r="F59">
+        <v>-0.03389904936490245</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B60">
-        <v>0.0289761708219845</v>
+        <v>0.2313649839789225</v>
       </c>
       <c r="C60">
-        <v>0.2747733784940695</v>
+        <v>0.003014732990872449</v>
       </c>
       <c r="D60">
-        <v>-0.004774588873021079</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.04182329532289971</v>
+      </c>
+      <c r="E60">
+        <v>-0.01095804494044184</v>
+      </c>
+      <c r="F60">
+        <v>-0.006567642431375304</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B61">
-        <v>0.0305631277150587</v>
+        <v>0.08220348943434604</v>
       </c>
       <c r="C61">
-        <v>0.1239178556287866</v>
+        <v>-0.01155914375027539</v>
       </c>
       <c r="D61">
-        <v>-0.02232687801890925</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.1162228616768056</v>
+      </c>
+      <c r="E61">
+        <v>-0.03861127847899478</v>
+      </c>
+      <c r="F61">
+        <v>0.01151488792973983</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B62">
-        <v>0.03602775229166768</v>
+        <v>0.1705816795442779</v>
       </c>
       <c r="C62">
-        <v>0.1623999220848731</v>
+        <v>-0.01945612838642569</v>
       </c>
       <c r="D62">
-        <v>0.01963438566617237</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>-0.006234040858532354</v>
+      </c>
+      <c r="E62">
+        <v>-0.03452638267727683</v>
+      </c>
+      <c r="F62">
+        <v>0.03306363077402128</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B63">
-        <v>0.01197671803179047</v>
+        <v>0.0457708428914594</v>
       </c>
       <c r="C63">
-        <v>0.05283411962200793</v>
+        <v>-0.001900678414857673</v>
       </c>
       <c r="D63">
-        <v>-0.01090325068238244</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.05793772507550113</v>
+      </c>
+      <c r="E63">
+        <v>-0.02138210079759524</v>
+      </c>
+      <c r="F63">
+        <v>0.006005904861009568</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B64">
-        <v>0.02453512112077775</v>
+        <v>0.1108187174294593</v>
       </c>
       <c r="C64">
-        <v>0.09641644885408469</v>
+        <v>-0.0109722786056424</v>
       </c>
       <c r="D64">
-        <v>0.005839905340285108</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.04256847745872967</v>
+      </c>
+      <c r="E64">
+        <v>-0.02391667917761719</v>
+      </c>
+      <c r="F64">
+        <v>0.02566423971880527</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B65">
-        <v>0.04002624305377567</v>
+        <v>0.1477231845605038</v>
       </c>
       <c r="C65">
-        <v>0.1055384579842279</v>
+        <v>-0.03248113321270601</v>
       </c>
       <c r="D65">
-        <v>0.02029116318456996</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.04131967829764795</v>
+      </c>
+      <c r="E65">
+        <v>-0.002804306896690174</v>
+      </c>
+      <c r="F65">
+        <v>0.03951922356123793</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B66">
-        <v>0.04141143642035575</v>
+        <v>0.1251096325147395</v>
       </c>
       <c r="C66">
-        <v>0.1932419894450017</v>
+        <v>-0.01361661952920958</v>
       </c>
       <c r="D66">
-        <v>-0.04670028831626709</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.1423207717473197</v>
+      </c>
+      <c r="E66">
+        <v>-0.06658781587430983</v>
+      </c>
+      <c r="F66">
+        <v>0.03096686710577298</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B67">
-        <v>0.01461880792330724</v>
+        <v>0.06092754854137171</v>
       </c>
       <c r="C67">
-        <v>0.07494395974983055</v>
+        <v>-0.003112885703979712</v>
       </c>
       <c r="D67">
-        <v>-0.006100125416012629</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.05504061861720881</v>
+      </c>
+      <c r="E67">
+        <v>-0.01715160256359138</v>
+      </c>
+      <c r="F67">
+        <v>-0.03429579940705891</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B68">
-        <v>0.01748545670704204</v>
+        <v>0.1167052825837643</v>
       </c>
       <c r="C68">
-        <v>0.02321112100660761</v>
+        <v>-0.03123530700171175</v>
       </c>
       <c r="D68">
-        <v>0.1979323254397925</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.261647671928164</v>
+      </c>
+      <c r="E68">
+        <v>0.08670117962397242</v>
+      </c>
+      <c r="F68">
+        <v>0.005156307674873164</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B69">
-        <v>0.005961184111796739</v>
+        <v>0.03979948969255727</v>
       </c>
       <c r="C69">
-        <v>0.03323485672262626</v>
+        <v>-0.001313746476940805</v>
       </c>
       <c r="D69">
-        <v>0.00455293960704535</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.007352159232745266</v>
+      </c>
+      <c r="E69">
+        <v>-0.02303966582002545</v>
+      </c>
+      <c r="F69">
+        <v>-0.001011039624037655</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B70">
-        <v>-0.0002848113198183806</v>
+        <v>0.06592668197847686</v>
       </c>
       <c r="C70">
-        <v>0.03589352888327083</v>
+        <v>0.02804502081967475</v>
       </c>
       <c r="D70">
-        <v>0.005515168011917807</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>-0.02452425687226306</v>
+      </c>
+      <c r="E70">
+        <v>0.04004293962682263</v>
+      </c>
+      <c r="F70">
+        <v>-0.1860396374381276</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B71">
-        <v>0.02114729878905674</v>
+        <v>0.1364907043949184</v>
       </c>
       <c r="C71">
-        <v>0.02946452886784301</v>
+        <v>-0.03555368985281777</v>
       </c>
       <c r="D71">
-        <v>0.2089811541255537</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.2736581725499342</v>
+      </c>
+      <c r="E71">
+        <v>0.09613303332091795</v>
+      </c>
+      <c r="F71">
+        <v>0.01207493657718512</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B72">
-        <v>0.03690650600518662</v>
+        <v>0.1420596046446263</v>
       </c>
       <c r="C72">
-        <v>0.1183567815703764</v>
+        <v>-0.02583053359844959</v>
       </c>
       <c r="D72">
-        <v>0.03575428004398833</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.001298097639362363</v>
+      </c>
+      <c r="E72">
+        <v>-0.0382857556667743</v>
+      </c>
+      <c r="F72">
+        <v>0.03423315624768262</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B73">
-        <v>0.03447272106979288</v>
+        <v>0.2005630417694442</v>
       </c>
       <c r="C73">
-        <v>0.2127826160008622</v>
+        <v>-0.01208546640140989</v>
       </c>
       <c r="D73">
-        <v>0.04878448895084442</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.0180796211422589</v>
+      </c>
+      <c r="E73">
+        <v>-0.06481232145201825</v>
+      </c>
+      <c r="F73">
+        <v>0.03859366942600965</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B74">
-        <v>0.0210925935189405</v>
+        <v>0.09493374701811608</v>
       </c>
       <c r="C74">
-        <v>0.1075156637129975</v>
+        <v>-0.01304057460267373</v>
       </c>
       <c r="D74">
-        <v>0.02156830797083571</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.01743646772411378</v>
+      </c>
+      <c r="E74">
+        <v>-0.04413692049069101</v>
+      </c>
+      <c r="F74">
+        <v>0.05575433291058279</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B75">
-        <v>0.04250231162306496</v>
+        <v>0.1284586925155783</v>
       </c>
       <c r="C75">
-        <v>0.1335958168170678</v>
+        <v>-0.02750482301047231</v>
       </c>
       <c r="D75">
-        <v>0.02935988293788918</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.03015037415152107</v>
+      </c>
+      <c r="E75">
+        <v>-0.05787865378481867</v>
+      </c>
+      <c r="F75">
+        <v>0.01737777644566723</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B76">
-        <v>0.0002437016662197068</v>
+        <v>0.0005417598859229872</v>
       </c>
       <c r="C76">
-        <v>0.001759385949238126</v>
+        <v>-0.0001594936217939107</v>
       </c>
       <c r="D76">
-        <v>0.001743498086890942</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>0.0002495934287151005</v>
+      </c>
+      <c r="E76">
+        <v>-0.0002449594479705354</v>
+      </c>
+      <c r="F76">
+        <v>0.0006601080804345704</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B77">
-        <v>0.02406442366571855</v>
+        <v>0.08555242487960098</v>
       </c>
       <c r="C77">
-        <v>0.09633776524675748</v>
+        <v>-0.007817851380075085</v>
       </c>
       <c r="D77">
-        <v>-0.06636017071500024</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.114360988190626</v>
+      </c>
+      <c r="E77">
+        <v>-0.0392646003945825</v>
+      </c>
+      <c r="F77">
+        <v>0.03294693224182258</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B78">
-        <v>0.05420161043366941</v>
+        <v>0.09977835701829305</v>
       </c>
       <c r="C78">
-        <v>0.1380373798285358</v>
+        <v>-0.0390887326919544</v>
       </c>
       <c r="D78">
-        <v>0.001713197087672827</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.1167577712371738</v>
+      </c>
+      <c r="E78">
+        <v>-0.07460515626140832</v>
+      </c>
+      <c r="F78">
+        <v>0.04595193556506753</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B79">
-        <v>0.03733469301441316</v>
+        <v>0.164912170931076</v>
       </c>
       <c r="C79">
-        <v>0.1440626375448567</v>
+        <v>-0.02217134331917117</v>
       </c>
       <c r="D79">
-        <v>0.02874608409040528</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.01506063496655282</v>
+      </c>
+      <c r="E79">
+        <v>-0.04632722650565781</v>
+      </c>
+      <c r="F79">
+        <v>0.01018682822352185</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B80">
-        <v>0.009241573433214655</v>
+        <v>0.08249141591038531</v>
       </c>
       <c r="C80">
-        <v>0.08363661629593766</v>
+        <v>0.001036873294580002</v>
       </c>
       <c r="D80">
-        <v>0.005786085918721277</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.05718950515345009</v>
+      </c>
+      <c r="E80">
+        <v>-0.03694886058782928</v>
+      </c>
+      <c r="F80">
+        <v>-0.02375207536614635</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B81">
-        <v>0.04446106716186089</v>
+        <v>0.1218168855396184</v>
       </c>
       <c r="C81">
-        <v>0.138242962722729</v>
+        <v>-0.03152897723945414</v>
       </c>
       <c r="D81">
-        <v>0.01566611065273025</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.01587109042851419</v>
+      </c>
+      <c r="E81">
+        <v>-0.0575479523367036</v>
+      </c>
+      <c r="F81">
+        <v>0.01557486133129932</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B82">
-        <v>0.03949924798341894</v>
+        <v>0.1665680604184114</v>
       </c>
       <c r="C82">
-        <v>0.1652437604852941</v>
+        <v>-0.02391602426802064</v>
       </c>
       <c r="D82">
-        <v>0.02831295695517543</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.003734505342702972</v>
+      </c>
+      <c r="E82">
+        <v>-0.02765610698423222</v>
+      </c>
+      <c r="F82">
+        <v>0.07888884266746519</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B83">
-        <v>0.01736008603569221</v>
+        <v>0.060640683519687</v>
       </c>
       <c r="C83">
-        <v>0.0716466400921191</v>
+        <v>-0.002836482881598321</v>
       </c>
       <c r="D83">
-        <v>-0.003312954537013905</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.05059904874802131</v>
+      </c>
+      <c r="E83">
+        <v>-0.004878287497438266</v>
+      </c>
+      <c r="F83">
+        <v>-0.03164796059282466</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B84">
-        <v>0.02684181335850718</v>
+        <v>0.05830992614942006</v>
       </c>
       <c r="C84">
-        <v>0.07910868511959006</v>
+        <v>-0.01084547487447197</v>
       </c>
       <c r="D84">
-        <v>-0.0152484614197848</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>-0.06434399432181608</v>
+      </c>
+      <c r="E84">
+        <v>-0.006806640585906833</v>
+      </c>
+      <c r="F84">
+        <v>0.003609006847804699</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B85">
-        <v>0.03896793019458988</v>
+        <v>0.1368208917046967</v>
       </c>
       <c r="C85">
-        <v>0.1191308738105216</v>
+        <v>-0.02750203993907838</v>
       </c>
       <c r="D85">
-        <v>0.01544709800188978</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.0107615067684217</v>
+      </c>
+      <c r="E85">
+        <v>-0.03853811004698853</v>
+      </c>
+      <c r="F85">
+        <v>0.04453299678792137</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B86">
-        <v>0.0133636874063646</v>
+        <v>0.09369877682901828</v>
       </c>
       <c r="C86">
-        <v>0.09689000089210946</v>
+        <v>0.006478332253743732</v>
       </c>
       <c r="D86">
-        <v>0.252284444954907</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.04160357654215312</v>
+      </c>
+      <c r="E86">
+        <v>-0.2119456644383973</v>
+      </c>
+      <c r="F86">
+        <v>-0.9084430700420142</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B87">
-        <v>0.03885820906500782</v>
+        <v>0.09686564479071977</v>
       </c>
       <c r="C87">
-        <v>0.1025310693174384</v>
+        <v>-0.01944060181172245</v>
       </c>
       <c r="D87">
-        <v>-0.06174583334323432</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.09656635570426349</v>
+      </c>
+      <c r="E87">
+        <v>0.05038968973800075</v>
+      </c>
+      <c r="F87">
+        <v>0.05390038267047825</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B88">
-        <v>0.0136862486941933</v>
+        <v>0.06097794197340865</v>
       </c>
       <c r="C88">
-        <v>0.0606156319236994</v>
+        <v>-0.002116229430604846</v>
       </c>
       <c r="D88">
-        <v>-0.007950539539553032</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.04960935828251583</v>
+      </c>
+      <c r="E88">
+        <v>-0.02454695087280764</v>
+      </c>
+      <c r="F88">
+        <v>0.01177426836179781</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B89">
-        <v>0.002244383363348184</v>
+        <v>0.1340023192084525</v>
       </c>
       <c r="C89">
-        <v>0.04699929977293126</v>
+        <v>-0.01309951187164367</v>
       </c>
       <c r="D89">
-        <v>0.2443826688901955</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.2515385310081538</v>
+      </c>
+      <c r="E89">
+        <v>0.09048026716802245</v>
+      </c>
+      <c r="F89">
+        <v>-0.007450816868854289</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B90">
-        <v>0.01953630841604359</v>
+        <v>0.1498786311554725</v>
       </c>
       <c r="C90">
-        <v>0.0322094196265466</v>
+        <v>-0.03168571555502522</v>
       </c>
       <c r="D90">
-        <v>0.2153819736468159</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.2690167315968081</v>
+      </c>
+      <c r="E90">
+        <v>0.111406024253326</v>
+      </c>
+      <c r="F90">
+        <v>-0.001554337782417207</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B91">
-        <v>0.0246608445123066</v>
+        <v>0.1204516095016538</v>
       </c>
       <c r="C91">
-        <v>0.1007121601278741</v>
+        <v>-0.01860069295485151</v>
       </c>
       <c r="D91">
-        <v>0.02558930217406815</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.01299306065355334</v>
+      </c>
+      <c r="E91">
+        <v>-0.05607845628296641</v>
+      </c>
+      <c r="F91">
+        <v>-0.003558364382713735</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B92">
-        <v>0.005095497974468884</v>
+        <v>0.1474908105848521</v>
       </c>
       <c r="C92">
-        <v>0.04482341671766012</v>
+        <v>-0.02331326031434262</v>
       </c>
       <c r="D92">
-        <v>0.2351780979714541</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.2912720807214043</v>
+      </c>
+      <c r="E92">
+        <v>0.1000091575715609</v>
+      </c>
+      <c r="F92">
+        <v>-0.01271755529258572</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B93">
-        <v>0.01707497061610726</v>
+        <v>0.1518555684896612</v>
       </c>
       <c r="C93">
-        <v>0.04584063263972622</v>
+        <v>-0.0276561005045038</v>
       </c>
       <c r="D93">
-        <v>0.2391995322684032</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.269015623931103</v>
+      </c>
+      <c r="E93">
+        <v>0.07691258882823199</v>
+      </c>
+      <c r="F93">
+        <v>0.002965528753428666</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B94">
-        <v>0.04139561517867139</v>
+        <v>0.1312325614713911</v>
       </c>
       <c r="C94">
-        <v>0.1496156138273758</v>
+        <v>-0.0245099486244816</v>
       </c>
       <c r="D94">
-        <v>0.01293542365725869</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.04219364952477733</v>
+      </c>
+      <c r="E94">
+        <v>-0.05736327758573822</v>
+      </c>
+      <c r="F94">
+        <v>0.03525969031953858</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B95">
-        <v>0.02643947915380976</v>
+        <v>0.1274261527730264</v>
       </c>
       <c r="C95">
-        <v>0.1426342293411368</v>
+        <v>-0.003544735431386136</v>
       </c>
       <c r="D95">
-        <v>-0.02188418834696131</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.09162736067808028</v>
+      </c>
+      <c r="E95">
+        <v>-0.04669620488963121</v>
+      </c>
+      <c r="F95">
+        <v>-0.006848247041907385</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B96">
-        <v>-0.9740868098603073</v>
+        <v>0.1045731606033729</v>
       </c>
       <c r="C96">
-        <v>0.207086835806026</v>
+        <v>0.9877214384477011</v>
       </c>
       <c r="D96">
-        <v>0.0244723516627128</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4">
+        <v>0.04750880180809151</v>
+      </c>
+      <c r="E96">
+        <v>-0.05556017533866633</v>
+      </c>
+      <c r="F96">
+        <v>0.04221922011411467</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B97">
-        <v>0.006095514623470335</v>
+        <v>0.1932734846823747</v>
       </c>
       <c r="C97">
-        <v>0.1594291900687001</v>
+        <v>0.007674100615611777</v>
       </c>
       <c r="D97">
-        <v>0.09958025722361674</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>0.01821076287592952</v>
+      </c>
+      <c r="E97">
+        <v>-0.01768370928790442</v>
+      </c>
+      <c r="F97">
+        <v>-0.09174385586368793</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B98">
-        <v>0.02780549113030503</v>
+        <v>0.2042020616990634</v>
       </c>
       <c r="C98">
-        <v>0.1986547171473121</v>
+        <v>-0.006791599360265415</v>
       </c>
       <c r="D98">
-        <v>0.0301357666939863</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.01361430051189119</v>
+      </c>
+      <c r="E98">
+        <v>0.08381827987124839</v>
+      </c>
+      <c r="F98">
+        <v>-0.09354130625144365</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B99">
-        <v>0.00515563931527477</v>
+        <v>0.05554902759236933</v>
       </c>
       <c r="C99">
-        <v>0.06416740474574648</v>
+        <v>0.004988101230511286</v>
       </c>
       <c r="D99">
-        <v>0.02349913010158288</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
+        <v>-0.03990937582555386</v>
+      </c>
+      <c r="E99">
+        <v>-0.02326144167040643</v>
+      </c>
+      <c r="F99">
+        <v>0.001311437545714027</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B100">
-        <v>0.006999785256797832</v>
+        <v>0.1252050985828409</v>
       </c>
       <c r="C100">
-        <v>0.1923080907164706</v>
+        <v>0.05475229947256501</v>
       </c>
       <c r="D100">
-        <v>-0.6812059649109758</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4">
+        <v>-0.3430326495207365</v>
+      </c>
+      <c r="E100">
+        <v>0.8899192210068981</v>
+      </c>
+      <c r="F100">
+        <v>-0.1404573239635588</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B101">
-        <v>0.0130077107476847</v>
+        <v>0.02760949083924556</v>
       </c>
       <c r="C101">
-        <v>0.02809654847370401</v>
+        <v>-0.008121678219318947</v>
       </c>
       <c r="D101">
-        <v>0.008133164482929103</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.03175684607456004</v>
+      </c>
+      <c r="E101">
+        <v>-0.01071945205676621</v>
+      </c>
+      <c r="F101">
+        <v>-0.01172123642809307</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2119,10 +2731,16 @@
       <c r="D102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:4">
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +2751,16 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +2769,12 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
         <v>0</v>
       </c>
     </row>
